--- a/doc/log/log_201608040202_fangye.xlsx
+++ b/doc/log/log_201608040202_fangye.xlsx
@@ -1,40 +1,417 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="19770" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>原计划</t>
+  </si>
+  <si>
+    <t>执行情况</t>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+  </si>
+  <si>
+    <t>19：00-21:00</t>
+  </si>
+  <si>
+    <t>配置eclipse环境</t>
+  </si>
+  <si>
+    <t>maven，Tomcat成功配置</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>配置git和tortoisegit</t>
+  </si>
+  <si>
+    <t>配置成功</t>
+  </si>
+  <si>
+    <t>上传日志到远程仓库</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,18 +419,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,42 +1011,121 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:4">
+      <c r="A2" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:4">
+      <c r="A3" s="1">
+        <v>43230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:3">
+      <c r="A4" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1"/>
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="31" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040202_fangye.xlsx
+++ b/doc/log/log_201608040202_fangye.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>测试成功</t>
+  </si>
+  <si>
+    <t>更改接口</t>
+  </si>
+  <si>
+    <t>接口正确</t>
   </si>
 </sst>
 </file>
@@ -71,8 +77,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -86,10 +92,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,15 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +143,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,8 +159,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -207,25 +215,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,24 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,6 +449,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,57 +535,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,7 +1042,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1128,7 +1134,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" ht="43" customHeight="1"/>
+    <row r="8" ht="43" customHeight="1" spans="1:3">
+      <c r="A8" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="9" ht="43" customHeight="1"/>
     <row r="10" ht="43" customHeight="1"/>
     <row r="11" ht="43" customHeight="1"/>

--- a/doc/log/log_201608040202_fangye.xlsx
+++ b/doc/log/log_201608040202_fangye.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -54,22 +54,46 @@
     <t>增添测试成功</t>
   </si>
   <si>
-    <t>填写service与web</t>
+    <t>填写service</t>
   </si>
   <si>
     <t>成功运行</t>
   </si>
   <si>
+    <t>填写web块</t>
+  </si>
+  <si>
+    <t>填写完成</t>
+  </si>
+  <si>
+    <t>增加数据库数据</t>
+  </si>
+  <si>
+    <t>增加部分</t>
+  </si>
+  <si>
     <t>增加数据库测试数据</t>
   </si>
   <si>
     <t>测试成功</t>
   </si>
   <si>
+    <t>增加js内容</t>
+  </si>
+  <si>
+    <t>网页报404错误</t>
+  </si>
+  <si>
+    <t>修改js内容</t>
+  </si>
+  <si>
+    <t>可以运行网页出现表格内信息</t>
+  </si>
+  <si>
     <t>更改接口</t>
   </si>
   <si>
-    <t>接口正确</t>
+    <t>接口正确并成功连接</t>
   </si>
 </sst>
 </file>
@@ -77,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,6 +112,95 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,53 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,42 +228,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,20 +254,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,25 +268,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,157 +394,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +459,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,21 +517,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,8 +539,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,25 +559,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,8 +1065,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1136,7 +1160,7 @@
     </row>
     <row r="8" ht="43" customHeight="1" spans="1:3">
       <c r="A8" s="2">
-        <v>43265</v>
+        <v>43263</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1145,11 +1169,61 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" ht="43" customHeight="1"/>
-    <row r="10" ht="43" customHeight="1"/>
-    <row r="11" ht="43" customHeight="1"/>
-    <row r="12" ht="43" customHeight="1"/>
-    <row r="13" ht="43" customHeight="1"/>
+    <row r="9" ht="43" customHeight="1" spans="1:3">
+      <c r="A9" s="2">
+        <v>43257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="43" customHeight="1" spans="1:3">
+      <c r="A10" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="43" customHeight="1" spans="1:3">
+      <c r="A11" s="2">
+        <v>43261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="43" customHeight="1" spans="1:3">
+      <c r="A12" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="43" customHeight="1" spans="1:3">
+      <c r="A13" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="14" ht="43" customHeight="1"/>
     <row r="15" ht="43" customHeight="1"/>
     <row r="16" ht="43" customHeight="1"/>

--- a/doc/log/log_201608040202_fangye.xlsx
+++ b/doc/log/log_201608040202_fangye.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -93,7 +93,28 @@
     <t>更改接口</t>
   </si>
   <si>
+    <t>没有完成</t>
+  </si>
+  <si>
     <t>接口正确并成功连接</t>
+  </si>
+  <si>
+    <t>了解jekins和JIRA</t>
+  </si>
+  <si>
+    <t>熟悉下载</t>
+  </si>
+  <si>
+    <t>安装jekins和jira</t>
+  </si>
+  <si>
+    <t>配置还未完成</t>
+  </si>
+  <si>
+    <t>小组讨论立项方向和具体内容</t>
+  </si>
+  <si>
+    <t>流程大概讨论完成</t>
   </si>
 </sst>
 </file>
@@ -101,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -115,22 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -139,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,7 +159,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,42 +184,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,9 +195,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,32 +226,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,37 +295,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,133 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,17 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,37 +531,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,16 +560,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,8 +1086,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1221,12 +1242,42 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" ht="43" customHeight="1"/>
-    <row r="15" ht="43" customHeight="1"/>
-    <row r="16" ht="43" customHeight="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="43" customHeight="1" spans="1:3">
+      <c r="A14" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:3">
+      <c r="A15" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="43" customHeight="1" spans="1:3">
+      <c r="A16" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="17" ht="43" customHeight="1"/>
     <row r="18" ht="43" customHeight="1"/>
     <row r="19" ht="43" customHeight="1"/>

--- a/doc/log/log_201608040202_fangye.xlsx
+++ b/doc/log/log_201608040202_fangye.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>流程大概讨论完成</t>
+  </si>
+  <si>
+    <t>加入组织</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>增加注释</t>
+  </si>
+  <si>
+    <t>部分注释不太理解运用</t>
   </si>
 </sst>
 </file>
@@ -123,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,6 +149,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,7 +163,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,20 +199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -184,6 +220,67 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,91 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -289,49 +301,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,19 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,49 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,55 +481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,24 +492,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,6 +525,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -560,36 +592,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +610,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1086,8 +1098,8 @@
   <sheetPr/>
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1278,9 +1290,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" ht="43" customHeight="1"/>
-    <row r="18" ht="43" customHeight="1"/>
-    <row r="19" ht="43" customHeight="1"/>
+    <row r="17" ht="43" customHeight="1" spans="1:3">
+      <c r="A17" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="43" customHeight="1" spans="1:3">
+      <c r="A18" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="43" customHeight="1" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
     <row r="20" ht="43" customHeight="1"/>
     <row r="21" ht="43" customHeight="1"/>
     <row r="22" ht="43" customHeight="1"/>

--- a/doc/log/log_201608040202_fangye.xlsx
+++ b/doc/log/log_201608040202_fangye.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>部分注释不太理解运用</t>
+  </si>
+  <si>
+    <t>完善测试类</t>
+  </si>
+  <si>
+    <t>dao 与 web</t>
+  </si>
+  <si>
+    <t>了解框架结构</t>
+  </si>
+  <si>
+    <t>未开始动手写</t>
   </si>
 </sst>
 </file>
@@ -134,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,6 +160,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -156,12 +191,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -169,14 +220,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -184,10 +250,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,96 +281,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,74 +504,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,16 +536,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +622,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1111,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1312,10 +1324,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" ht="43" customHeight="1" spans="1:1">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" ht="43" customHeight="1"/>
+    <row r="19" ht="43" customHeight="1" spans="1:3">
+      <c r="A19" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="43" customHeight="1" spans="1:3">
+      <c r="A20" s="2">
+        <v>42549</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="21" ht="43" customHeight="1"/>
     <row r="22" ht="43" customHeight="1"/>
     <row r="23" ht="43" customHeight="1"/>
